--- a/2 курс/Анализ данных/Лабораторная 6/Гурьянова_2020.xlsx
+++ b/2 курс/Анализ данных/Лабораторная 6/Гурьянова_2020.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="№9 с.17" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -164,14 +164,14 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="286873" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F5C9C7B-2397-4EE5-9616-4DC735D3AA7E}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F5C9C7B-2397-4EE5-9616-4DC735D3AA7E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -246,7 +246,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -323,14 +323,14 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="288862" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D376D738-748E-40BC-B8E8-B3E210EA16C0}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D376D738-748E-40BC-B8E8-B3E210EA16C0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -405,7 +405,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -743,7 +743,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2 курс/Анализ данных/Лабораторная 6/Гурьянова_2020.xlsx
+++ b/2 курс/Анализ данных/Лабораторная 6/Гурьянова_2020.xlsx
@@ -12,7 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="№9 с.17" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист4" sheetId="5" r:id="rId1"/>
+    <sheet name="№9 с.17" sheetId="1" r:id="rId2"/>
+    <sheet name="№2 с.56" sheetId="2" r:id="rId3"/>
+    <sheet name="№4 с.60" sheetId="3" r:id="rId4"/>
+    <sheet name="6" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Cov =</t>
   </si>
@@ -75,13 +79,88 @@
   </si>
   <si>
     <t>X = 1</t>
+  </si>
+  <si>
+    <t>Станд откл</t>
+  </si>
+  <si>
+    <t>Выборка</t>
+  </si>
+  <si>
+    <t>средн колво</t>
+  </si>
+  <si>
+    <t>довер инт</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>лев гр</t>
+  </si>
+  <si>
+    <t>прав гр</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Служба контроля Энергосбыта провела в течение одного из летних месяцев выборочную проверку расхода электроэнергии жителями 10 квартир многоквартирного дома. В результате выяснилось, что расход составил 125; 78; 102; 140; 90; 45; 50; 125; 115; 112. кВт/час. С надежностью 0,95 определите доверительный интервал для оценки среднего расхода электроэнергии на одну квартиру во всем доме.</t>
+  </si>
+  <si>
+    <t>X=</t>
+  </si>
+  <si>
+    <t>s^2</t>
+  </si>
+  <si>
+    <t>s=</t>
+  </si>
+  <si>
+    <t>g =</t>
+  </si>
+  <si>
+    <t>n=</t>
+  </si>
+  <si>
+    <t>a=</t>
+  </si>
+  <si>
+    <t>k=</t>
+  </si>
+  <si>
+    <t>t=</t>
+  </si>
+  <si>
+    <t>Δ</t>
+  </si>
+  <si>
+    <t>Ответ:</t>
+  </si>
+  <si>
+    <t>&lt;X&lt;</t>
+  </si>
+  <si>
+    <t>Ошибка оц.:</t>
+  </si>
+  <si>
+    <t>Ширина:</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>Вариационный ряд:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,16 +176,62 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,14 +254,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -171,7 +332,7 @@
             <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F5C9C7B-2397-4EE5-9616-4DC735D3AA7E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F5C9C7B-2397-4EE5-9616-4DC735D3AA7E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -330,7 +491,7 @@
             <xdr:cNvPr id="3" name="TextBox 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D376D738-748E-40BC-B8E8-B3E210EA16C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D376D738-748E-40BC-B8E8-B3E210EA16C0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -740,9 +901,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -945,4 +1126,484 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <f>_xlfn.NORM.S.INV((1+B6)/2)</f>
+        <v>2.5758293035488999</v>
+      </c>
+      <c r="C8">
+        <f>SQRT(B4)</f>
+        <v>7.0710678118654755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <f>B5-((B8*B3)/C8)</f>
+        <v>0.98771445452912621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1">
+        <f>_xlfn.T.INV((1+0.95)/2, 30-1)</f>
+        <v>2.0452296421327034</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:P7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5">
+        <f>(313+320+319+340+325+310+321+329+317+311+307+318)/12</f>
+        <v>319.16666666666669</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="E1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="5">
+        <f>(313+320+319+340+325+310+321+329+317+311+307+318)/12</f>
+        <v>319.16666666666669</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5">
+        <f>_xlfn.VAR.S(313,320,319,340,325,310,321,329,317,311,307,318)</f>
+        <v>82.87878787878789</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5">
+        <f>_xlfn.VAR.S(313,320,319,340,325,310,321,329,317,311,307,318)</f>
+        <v>82.87878787878789</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
+        <f>SQRT(B2)</f>
+        <v>9.1037787692137986</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SQRT(F2)</f>
+        <v>9.1037787692137986</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5">
+        <f>1-B4</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5">
+        <f>1-F4</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5">
+        <f>B5-1</f>
+        <v>11</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5">
+        <f>F5-1</f>
+        <v>11</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5">
+        <f>_xlfn.T.INV((1+B4)/2, B5-1)</f>
+        <v>1.795884818704043</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="5">
+        <f>_xlfn.T.INV((1+F4)/2, F5-1)</f>
+        <v>3.10580651553928</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="10">
+        <f>B9*(B3/SQRT(B5))</f>
+        <v>4.7196473720708356</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="E10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="10">
+        <f>F9*(F3/SQRT(F5))</f>
+        <v>8.162166864244254</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="E11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <f>B1-B10</f>
+        <v>314.44701929459586</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5">
+        <f>B1+B10</f>
+        <v>323.88631403873751</v>
+      </c>
+      <c r="E12" s="5">
+        <f>F1-F10</f>
+        <v>311.00449980242246</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="5">
+        <f>F1+F10</f>
+        <v>327.32883353091091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14">
+        <f>_xlfn.STDEV.S(313,320,319,340,325,310,321,329,317,311,307,318)</f>
+        <v>9.1037787692137986</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14">
+        <f>(G12-E12)/2</f>
+        <v>8.1621668642442273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14">
+        <f>(C12-A12)/2</f>
+        <v>4.7196473720708241</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14">
+        <f>(G12-E12)/2</f>
+        <v>8.1621668642442273</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E14:F14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2 курс/Анализ данных/Лабораторная 6/Гурьянова_2020.xlsx
+++ b/2 курс/Анализ данных/Лабораторная 6/Гурьянова_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Лист4" sheetId="5" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="№2 с.56" sheetId="2" r:id="rId3"/>
     <sheet name="№4 с.60" sheetId="3" r:id="rId4"/>
     <sheet name="6" sheetId="4" r:id="rId5"/>
+    <sheet name="№2 с.60" sheetId="6" r:id="rId6"/>
+    <sheet name="№1 с. 63" sheetId="7" r:id="rId7"/>
+    <sheet name="№3 с. 63" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>Cov =</t>
   </si>
@@ -154,13 +157,58 @@
   </si>
   <si>
     <t>Вариационный ряд:</t>
+  </si>
+  <si>
+    <t>среденее</t>
+  </si>
+  <si>
+    <t>выборка</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>нижняя граница</t>
+  </si>
+  <si>
+    <t>верхняя граница</t>
+  </si>
+  <si>
+    <t>корень(n)</t>
+  </si>
+  <si>
+    <t>надежность</t>
+  </si>
+  <si>
+    <t>t значение</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>S^2</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>(1+y)/2</t>
+  </si>
+  <si>
+    <t>(1-y)/3</t>
+  </si>
+  <si>
+    <t>X^2(1-y)/2</t>
+  </si>
+  <si>
+    <t>X^2(1+y)/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +258,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -231,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -267,17 +324,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -289,15 +409,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -903,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1225,111 +1373,111 @@
         <f>_xlfn.T.INV((1+0.95)/2, 30-1)</f>
         <v>2.0452296421327034</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1344,7 +1492,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1353,248 +1501,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="4">
         <f>(313+320+319+340+325+310+321+329+317+311+307+318)/12</f>
         <v>319.16666666666669</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <f>(313+320+319+340+325+310+321+329+317+311+307+318)/12</f>
         <v>319.16666666666669</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f>_xlfn.VAR.S(313,320,319,340,325,310,321,329,317,311,307,318)</f>
         <v>82.87878787878789</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f>_xlfn.VAR.S(313,320,319,340,325,310,321,329,317,311,307,318)</f>
         <v>82.87878787878789</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>SQRT(B2)</f>
         <v>9.1037787692137986</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>SQRT(F2)</f>
         <v>9.1037787692137986</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0.9</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>0.99</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>12</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>12</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f>1-B4</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="5"/>
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f>1-F4</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f>B5-1</f>
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="5"/>
+      <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f>F5-1</f>
         <v>11</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <f>_xlfn.T.INV((1+B4)/2, B5-1)</f>
         <v>1.795884818704043</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="6"/>
+      <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f>_xlfn.T.INV((1+F4)/2, F5-1)</f>
         <v>3.10580651553928</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <f>B9*(B3/SQRT(B5))</f>
         <v>4.7196473720708356</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="6"/>
+      <c r="E10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <f>F9*(F3/SQRT(F5))</f>
         <v>8.162166864244254</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="E11" s="11" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <f>B1-B10</f>
         <v>314.44701929459586</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <f>B1+B10</f>
         <v>323.88631403873751</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <f>F1-F10</f>
         <v>311.00449980242246</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <f>F1+F10</f>
         <v>327.32883353091091</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14">
+      <c r="B13" s="35"/>
+      <c r="C13" s="12">
         <f>_xlfn.STDEV.S(313,320,319,340,325,310,321,329,317,311,307,318)</f>
         <v>9.1037787692137986</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14">
+      <c r="F13" s="35"/>
+      <c r="G13" s="12">
         <f>(G12-E12)/2</f>
         <v>8.1621668642442273</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14">
+      <c r="B14" s="35"/>
+      <c r="C14" s="12">
         <f>(C12-A12)/2</f>
         <v>4.7196473720708241</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14">
+      <c r="F14" s="35"/>
+      <c r="G14" s="12">
         <f>(G12-E12)/2</f>
         <v>8.1621668642442273</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1606,4 +1754,421 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="32">
+        <v>0.95</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="33">
+        <v>0.99</v>
+      </c>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="25">
+        <f>_xlfn.T.INV((1+B1)/2, B4-1)</f>
+        <v>2.1447866879178035</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2">
+        <f>_xlfn.T.INV((1+F1)/2, F4-1)</f>
+        <v>2.9768427343708344</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="26">
+        <v>10.37</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="16">
+        <v>10.37</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="25">
+        <v>15</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="25">
+        <f>SQRT(B4)</f>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2">
+        <f>SQRT(F4)</f>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="25">
+        <f>B3-((B2*B5)/B6)</f>
+        <v>8.4317646045229626</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2">
+        <f>F3-((F2*F5)/F6)</f>
+        <v>7.6798387886174151</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2">
+        <f>B3+((B2*B5)/B6)</f>
+        <v>12.308235395477036</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2">
+        <f>F3+((F2*F5)/F6)</f>
+        <v>13.060161211382583</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>18.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <f>(1+B4)/2</f>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <f>(1-B4)/2</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <f>_xlfn.CHISQ.INV(B6,B2)</f>
+        <v>16.79077226556663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <f>_xlfn.CHISQ.INV(B5,B2)</f>
+        <v>46.979242243671159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <f>B2*B3/B9</f>
+        <v>11.83927141938797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <f>B2*B3/B8</f>
+        <v>33.125337608241935</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2">
+        <f>(1+B4)/2</f>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(1-B4)/2</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="B7" s="29"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2">
+        <f>_xlfn.CHISQ.INV(B6,B2)</f>
+        <v>40.481748042841829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2">
+        <f>_xlfn.CHISQ.INV(B5,B2)</f>
+        <v>83.297674877173193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="29"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <f>B2*B3/B9</f>
+        <v>15.371377435060669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2">
+        <f>B2*B3/B8</f>
+        <v>31.629068948429619</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2 курс/Анализ данных/Лабораторная 6/Гурьянова_2020.xlsx
+++ b/2 курс/Анализ данных/Лабораторная 6/Гурьянова_2020.xlsx
@@ -9,17 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Лист4" sheetId="5" r:id="rId1"/>
     <sheet name="№9 с.17" sheetId="1" r:id="rId2"/>
     <sheet name="№2 с.56" sheetId="2" r:id="rId3"/>
-    <sheet name="№4 с.60" sheetId="3" r:id="rId4"/>
-    <sheet name="6" sheetId="4" r:id="rId5"/>
-    <sheet name="№2 с.60" sheetId="6" r:id="rId6"/>
-    <sheet name="№1 с. 63" sheetId="7" r:id="rId7"/>
-    <sheet name="№3 с. 63" sheetId="8" r:id="rId8"/>
+    <sheet name="№5 с. 57" sheetId="9" r:id="rId4"/>
+    <sheet name="№6 с. 57" sheetId="10" r:id="rId5"/>
+    <sheet name="№7 с. 57" sheetId="11" r:id="rId6"/>
+    <sheet name="№1 с. 60" sheetId="12" r:id="rId7"/>
+    <sheet name="№2 с. 60" sheetId="13" r:id="rId8"/>
+    <sheet name="№3 с. 60" sheetId="14" r:id="rId9"/>
+    <sheet name="№4 с.60" sheetId="3" r:id="rId10"/>
+    <sheet name="6" sheetId="4" r:id="rId11"/>
+    <sheet name="№2 с.60" sheetId="6" r:id="rId12"/>
+    <sheet name="№1 с. 63" sheetId="7" r:id="rId13"/>
+    <sheet name="№3 с. 63" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
   <si>
     <t>Cov =</t>
   </si>
@@ -108,12 +114,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>Служба контроля Энергосбыта провела в течение одного из летних месяцев выборочную проверку расхода электроэнергии жителями 10 квартир многоквартирного дома. В результате выяснилось, что расход составил 125; 78; 102; 140; 90; 45; 50; 125; 115; 112. кВт/час. С надежностью 0,95 определите доверительный интервал для оценки среднего расхода электроэнергии на одну квартиру во всем доме.</t>
-  </si>
-  <si>
     <t>X=</t>
   </si>
   <si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>X^2(1+y)/2</t>
+  </si>
+  <si>
+    <t>z(1+y)/2</t>
+  </si>
+  <si>
+    <t>корень из n</t>
+  </si>
+  <si>
+    <t>станд. отклонение</t>
+  </si>
+  <si>
+    <t>t(1+y)/2</t>
   </si>
 </sst>
 </file>
@@ -394,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -437,15 +449,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -480,7 +493,7 @@
             <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F5C9C7B-2397-4EE5-9616-4DC735D3AA7E}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F5C9C7B-2397-4EE5-9616-4DC735D3AA7E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -639,7 +652,7 @@
             <xdr:cNvPr id="3" name="TextBox 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D376D738-748E-40BC-B8E8-B3E210EA16C0}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D376D738-748E-40BC-B8E8-B3E210EA16C0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1059,11 +1072,869 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1">
+        <f>_xlfn.T.INV((1+0.95)/2, B3-1)</f>
+        <v>2.2621571627982049</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="38">
+        <f>SUM(125, 78, 102, 140, 90, 45, 50, 125, 115, 112)/B3</f>
+        <v>98.2</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>10.1709</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <f>SQRT(B3)</f>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <f>B2-((B1*B4)/B6)</f>
+        <v>90.924176445062969</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <f>B2+((B1*B4)/B6)</f>
+        <v>105.47582355493704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4">
+        <f>(313+320+319+340+325+310+321+329+317+311+307+318)/12</f>
+        <v>319.16666666666669</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4">
+        <f>(313+320+319+340+325+310+321+329+317+311+307+318)/12</f>
+        <v>319.16666666666669</v>
+      </c>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4">
+        <f>_xlfn.VAR.S(313,320,319,340,325,310,321,329,317,311,307,318)</f>
+        <v>82.87878787878789</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4">
+        <f>_xlfn.VAR.S(313,320,319,340,325,310,321,329,317,311,307,318)</f>
+        <v>82.87878787878789</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4">
+        <f>SQRT(B2)</f>
+        <v>9.1037787692137986</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SQRT(F2)</f>
+        <v>9.1037787692137986</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4">
+        <f>1-B4</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4">
+        <f>1-F4</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4">
+        <f>B5-1</f>
+        <v>11</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4">
+        <f>F5-1</f>
+        <v>11</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4">
+        <f>_xlfn.T.INV((1+B4)/2, B5-1)</f>
+        <v>1.795884818704043</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4">
+        <f>_xlfn.T.INV((1+F4)/2, F5-1)</f>
+        <v>3.10580651553928</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="9">
+        <f>B9*(B3/SQRT(B5))</f>
+        <v>4.7196473720708356</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="9">
+        <f>F9*(F3/SQRT(F5))</f>
+        <v>8.162166864244254</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
+        <f>B1-B10</f>
+        <v>314.44701929459586</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4">
+        <f>B1+B10</f>
+        <v>323.88631403873751</v>
+      </c>
+      <c r="E12" s="4">
+        <f>F1-F10</f>
+        <v>311.00449980242246</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="4">
+        <f>F1+F10</f>
+        <v>327.32883353091091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="12">
+        <f>_xlfn.STDEV.S(313,320,319,340,325,310,321,329,317,311,307,318)</f>
+        <v>9.1037787692137986</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="12">
+        <f>(G12-E12)/2</f>
+        <v>8.1621668642442273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="12">
+        <f>(C12-A12)/2</f>
+        <v>4.7196473720708241</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="12">
+        <f>(G12-E12)/2</f>
+        <v>8.1621668642442273</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E14:F14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="32">
+        <v>0.95</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="33">
+        <v>0.99</v>
+      </c>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="25">
+        <f>_xlfn.T.INV((1+B1)/2, B4-1)</f>
+        <v>2.1447866879178035</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2">
+        <f>_xlfn.T.INV((1+F1)/2, F4-1)</f>
+        <v>2.9768427343708344</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="26">
+        <v>10.37</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="16">
+        <v>10.37</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="25">
+        <v>15</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="25">
+        <f>SQRT(B4)</f>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2">
+        <f>SQRT(F4)</f>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="25">
+        <f>B3-((B2*B5)/B6)</f>
+        <v>8.4317646045229626</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2">
+        <f>F3-((F2*F5)/F6)</f>
+        <v>7.6798387886174151</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2">
+        <f>B3+((B2*B5)/B6)</f>
+        <v>12.308235395477036</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2">
+        <f>F3+((F2*F5)/F6)</f>
+        <v>13.060161211382583</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>18.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <f>(1+B4)/2</f>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <f>(1-B4)/2</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <f>_xlfn.CHISQ.INV(B6,B2)</f>
+        <v>16.79077226556663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <f>_xlfn.CHISQ.INV(B5,B2)</f>
+        <v>46.979242243671159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <f>B2*B3/B9</f>
+        <v>11.83927141938797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <f>B2*B3/B8</f>
+        <v>33.125337608241935</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2">
+        <f>(1+B4)/2</f>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(1-B4)/2</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
+      <c r="B7" s="29"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2">
+        <f>_xlfn.CHISQ.INV(B6,B2)</f>
+        <v>40.481748042841829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2">
+        <f>_xlfn.CHISQ.INV(B5,B2)</f>
+        <v>83.297674877173193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="29"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <f>B2*B3/B9</f>
+        <v>15.371377435060669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2">
+        <f>B2*B3/B8</f>
+        <v>31.629068948429619</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1278,70 +2149,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>0.02</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>0.99</v>
+        <f>_xlfn.NORM.S.INV((1+B4)/2)</f>
+        <v>2.5758293035488999</v>
+      </c>
+      <c r="C6">
+        <f>SQRT(B2)</f>
+        <v>7.0710678118654755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <f>B3-((B6*B1)/C6)</f>
+        <v>0.98771445452912621</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <f>_xlfn.NORM.S.INV((1+B6)/2)</f>
-        <v>2.5758293035488999</v>
-      </c>
-      <c r="C8">
-        <f>SQRT(B4)</f>
-        <v>7.0710678118654755</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <f>B5-((B8*B3)/C8)</f>
-        <v>0.98771445452912621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1357,408 +2228,85 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1">
+        <f>_xlfn.NORM.S.INV((1+0.99)/2)</f>
+        <v>2.5758293035488999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
         <v>25</v>
       </c>
-      <c r="B1">
-        <f>_xlfn.T.INV((1+0.95)/2, 30-1)</f>
-        <v>2.0452296421327034</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <f>SQRT(B3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <f>B2-((B1*B4)/B6)</f>
+        <v>14.2241706964511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <f>B2+((B1*B4)/B6)</f>
+        <v>19.375829303548901</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:P7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="4">
-        <f>(313+320+319+340+325+310+321+329+317+311+307+318)/12</f>
-        <v>319.16666666666669</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="4">
-        <f>(313+320+319+340+325+310+321+329+317+311+307+318)/12</f>
-        <v>319.16666666666669</v>
-      </c>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4">
-        <f>_xlfn.VAR.S(313,320,319,340,325,310,321,329,317,311,307,318)</f>
-        <v>82.87878787878789</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="4">
-        <f>_xlfn.VAR.S(313,320,319,340,325,310,321,329,317,311,307,318)</f>
-        <v>82.87878787878789</v>
-      </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4">
-        <f>SQRT(B2)</f>
-        <v>9.1037787692137986</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4">
-        <f>SQRT(F2)</f>
-        <v>9.1037787692137986</v>
-      </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4">
-        <v>12</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="4">
-        <f>1-B4</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4">
-        <f>1-F4</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="4">
-        <f>B5-1</f>
-        <v>11</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="4">
-        <f>F5-1</f>
-        <v>11</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4">
-        <f>_xlfn.T.INV((1+B4)/2, B5-1)</f>
-        <v>1.795884818704043</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="4">
-        <f>_xlfn.T.INV((1+F4)/2, F5-1)</f>
-        <v>3.10580651553928</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="9">
-        <f>B9*(B3/SQRT(B5))</f>
-        <v>4.7196473720708356</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="E10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="9">
-        <f>F9*(F3/SQRT(F5))</f>
-        <v>8.162166864244254</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
-        <f>B1-B10</f>
-        <v>314.44701929459586</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="4">
-        <f>B1+B10</f>
-        <v>323.88631403873751</v>
-      </c>
-      <c r="E12" s="4">
-        <f>F1-F10</f>
-        <v>311.00449980242246</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="4">
-        <f>F1+F10</f>
-        <v>327.32883353091091</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="12">
-        <f>_xlfn.STDEV.S(313,320,319,340,325,310,321,329,317,311,307,318)</f>
-        <v>9.1037787692137986</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="12">
-        <f>(G12-E12)/2</f>
-        <v>8.1621668642442273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="12">
-        <f>(C12-A12)/2</f>
-        <v>4.7196473720708241</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="12">
-        <f>(G12-E12)/2</f>
-        <v>8.1621668642442273</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E14:F14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
@@ -1767,299 +2315,222 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="32">
-        <v>0.95</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="33">
-        <v>0.99</v>
-      </c>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="25">
-        <f>_xlfn.T.INV((1+B1)/2, B4-1)</f>
-        <v>2.1447866879178035</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="2">
-        <f>_xlfn.T.INV((1+F1)/2, F4-1)</f>
-        <v>2.9768427343708344</v>
-      </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="26">
-        <v>10.37</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="16">
-        <v>10.37</v>
-      </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1">
+        <f>_xlfn.NORM.S.INV((1+0.994)/2)</f>
+        <v>2.7477813854449917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <f>SQRT(B3)</f>
+        <v>12.24744871391589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="25">
-        <v>15</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="2">
-        <v>15</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="B7">
+        <f>B2-((B1*B4)/B6)</f>
+        <v>1395.9616026085653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="25">
-        <v>3.5</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="25">
-        <f>SQRT(B4)</f>
-        <v>3.872983346207417</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="2">
-        <f>SQRT(F4)</f>
-        <v>3.872983346207417</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="25">
-        <f>B3-((B2*B5)/B6)</f>
-        <v>8.4317646045229626</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="2">
-        <f>F3-((F2*F5)/F6)</f>
-        <v>7.6798387886174151</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="2">
-        <f>B3+((B2*B5)/B6)</f>
-        <v>12.308235395477036</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2">
-        <f>F3+((F2*F5)/F6)</f>
-        <v>13.060161211382583</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="20"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="22"/>
+      <c r="B8">
+        <f>B2+((B1*B4)/B6)</f>
+        <v>1404.0383973914347</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1">
+        <f>_xlfn.NORM.S.INV((1+0.97)/2)</f>
+        <v>2.1700903775845601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="38">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <f>SQRT(B3)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <f>B2-((B1*B4)/B6)</f>
+        <v>9.215542317905312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <f>B2+((B1*B4)/B6)</f>
+        <v>9.5844576820946887</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1">
+        <f>_xlfn.T.INV((1+0.95)/2, B3-1)</f>
+        <v>2.0452296421327034</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="B2" s="38">
+        <v>6.85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>18.54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5">
-        <f>(1+B4)/2</f>
-        <v>0.97499999999999998</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6">
-        <f>(1-B4)/2</f>
-        <v>2.5000000000000022E-2</v>
+        <f>SQRT(B3)</f>
+        <v>5.4772255750516612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <f>B2-((B1*B4)/B6)</f>
+        <v>6.5886157042693299</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B8">
-        <f>_xlfn.CHISQ.INV(B6,B2)</f>
-        <v>16.79077226556663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9">
-        <f>_xlfn.CHISQ.INV(B5,B2)</f>
-        <v>46.979242243671159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <f>B2*B3/B9</f>
-        <v>11.83927141938797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <f>B2*B3/B8</f>
-        <v>33.125337608241935</v>
+        <f>B2+((B1*B4)/B6)</f>
+        <v>7.1113842957306694</v>
       </c>
     </row>
   </sheetData>
@@ -2069,106 +2540,216 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1">
+        <f>_xlfn.T.INV((1+0.95)/2, B3-1)</f>
+        <v>2.1447866879178035</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2">
-        <v>60</v>
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="38">
+        <v>10.37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2">
-        <v>21.34</v>
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="2">
-        <f>(1+B4)/2</f>
-        <v>0.97499999999999998</v>
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="2">
-        <f>(1-B4)/2</f>
-        <v>2.5000000000000022E-2</v>
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <f>SQRT(B3)</f>
+        <v>3.872983346207417</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="29"/>
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <f>B2-((B1*B4)/B6)</f>
+        <v>8.4317646045229626</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="2">
-        <f>_xlfn.CHISQ.INV(B6,B2)</f>
-        <v>40.481748042841829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <f>B2+((B1*B4)/B6)</f>
+        <v>12.308235395477036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10">
+        <f>_xlfn.T.INV((1+0.99)/2, B12-1)</f>
+        <v>2.9768427343708344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="38">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="2">
-        <f>_xlfn.CHISQ.INV(B5,B2)</f>
-        <v>83.297674877173193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="29"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2">
-        <f>B2*B3/B9</f>
-        <v>15.371377435060669</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2">
-        <f>B2*B3/B8</f>
-        <v>31.629068948429619</v>
+      <c r="B15">
+        <f>SQRT(B12)</f>
+        <v>3.872983346207417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <f>B11-((B10*B13)/B15)</f>
+        <v>7.6798387886174151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <f>B11+((B10*B13)/B15)</f>
+        <v>13.060161211382583</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1">
+        <f>_xlfn.T.INV((1+0.9)/2, B3-1)</f>
+        <v>1.6991270265334968</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="38">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>10.1709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <f>SQRT(B3)</f>
+        <v>5.4772255750516612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <f>B2-((B1*B4)/B6)</f>
+        <v>116.84481662524799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <f>B2+((B1*B4)/B6)</f>
+        <v>123.15518337475201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2 курс/Анализ данных/Лабораторная 6/Гурьянова_2020.xlsx
+++ b/2 курс/Анализ данных/Лабораторная 6/Гурьянова_2020.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anast\Documents\GitHub\FA\2 курс\Анализ данных\Лабораторная 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Факультет ИТиАБД\ПИ19-4\Жевагина Анастасия Владимировна - 191758\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="22" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Лист4" sheetId="5" r:id="rId1"/>
@@ -25,9 +25,21 @@
     <sheet name="6" sheetId="4" r:id="rId11"/>
     <sheet name="№2 с.60" sheetId="6" r:id="rId12"/>
     <sheet name="№1 с. 63" sheetId="7" r:id="rId13"/>
-    <sheet name="№3 с. 63" sheetId="8" r:id="rId14"/>
+    <sheet name="№ 2 с. 63" sheetId="15" r:id="rId14"/>
+    <sheet name="№3 с. 63" sheetId="8" r:id="rId15"/>
+    <sheet name="№4 с. 63" sheetId="16" r:id="rId16"/>
+    <sheet name="№5 с. 63" sheetId="17" r:id="rId17"/>
+    <sheet name="№1 с. 65" sheetId="18" r:id="rId18"/>
+    <sheet name="№2 с. 65" sheetId="19" r:id="rId19"/>
+    <sheet name="№3 с. 65" sheetId="20" r:id="rId20"/>
+    <sheet name="№4 с. 65" sheetId="21" r:id="rId21"/>
+    <sheet name="№5 с. 65" sheetId="22" r:id="rId22"/>
+    <sheet name="№6 с. 65" sheetId="23" r:id="rId23"/>
+    <sheet name="№7 с. 65" sheetId="24" r:id="rId24"/>
+    <sheet name="№8 с. 65" sheetId="25" r:id="rId25"/>
+    <sheet name="№9 с. 65" sheetId="26" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="68">
   <si>
     <t>Cov =</t>
   </si>
@@ -195,9 +207,6 @@
     <t>(1+y)/2</t>
   </si>
   <si>
-    <t>(1-y)/3</t>
-  </si>
-  <si>
     <t>X^2(1-y)/2</t>
   </si>
   <si>
@@ -214,12 +223,42 @@
   </si>
   <si>
     <t>t(1+y)/2</t>
+  </si>
+  <si>
+    <t>(1-y)/2</t>
+  </si>
+  <si>
+    <t>t(y)</t>
+  </si>
+  <si>
+    <t>центр</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x^2(1+y)/y</t>
+  </si>
+  <si>
+    <t>x^2(1-y)/y</t>
+  </si>
+  <si>
+    <t>Левая граница</t>
+  </si>
+  <si>
+    <t>Правая граница</t>
+  </si>
+  <si>
+    <t>левая часть</t>
+  </si>
+  <si>
+    <t>правая часть</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,12 +491,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,7 +532,7 @@
             <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F5C9C7B-2397-4EE5-9616-4DC735D3AA7E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F5C9C7B-2397-4EE5-9616-4DC735D3AA7E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -652,7 +691,7 @@
             <xdr:cNvPr id="3" name="TextBox 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D376D738-748E-40BC-B8E8-B3E210EA16C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D376D738-748E-40BC-B8E8-B3E210EA16C0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1068,9 +1107,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1084,139 +1123,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1">
         <f>_xlfn.T.INV((1+0.95)/2, B3-1)</f>
         <v>2.2621571627982049</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="37">
         <f>SUM(125, 78, 102, 140, 90, 45, 50, 125, 115, 112)/B3</f>
         <v>98.2</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
       <c r="B4">
         <v>10.1709</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <f>SQRT(B3)</f>
         <v>3.1622776601683795</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1224,21 +1263,21 @@
         <f>B2-((B1*B4)/B6)</f>
         <v>90.924176445062969</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1260,12 +1299,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1322,7 @@
       </c>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1301,7 +1340,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1319,7 +1358,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -1335,7 +1374,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1351,7 +1390,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -1359,7 +1398,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1377,7 +1416,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1395,7 +1434,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1413,7 +1452,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -1431,7 +1470,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
@@ -1443,7 +1482,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f>B1-B10</f>
         <v>314.44701929459586</v>
@@ -1467,30 +1506,30 @@
         <v>327.32883353091091</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="12">
         <f>_xlfn.STDEV.S(313,320,319,340,325,310,321,329,317,311,307,318)</f>
         <v>9.1037787692137986</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="37"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="12">
         <f>(G12-E12)/2</f>
         <v>8.1621668642442273</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="12">
         <f>(C12-A12)/2</f>
         <v>4.7196473720708241</v>
@@ -1498,10 +1537,10 @@
       <c r="D14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="12">
         <f>(G12-E12)/2</f>
         <v>8.1621668642442273</v>
@@ -1526,16 +1565,16 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1552,7 +1591,7 @@
       </c>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -1571,7 +1610,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -1588,7 +1627,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -1605,7 +1644,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -1622,7 +1661,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1641,7 +1680,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="25"/>
       <c r="C7" s="28"/>
@@ -1650,7 +1689,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>43</v>
       </c>
@@ -1669,7 +1708,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>44</v>
       </c>
@@ -1688,7 +1727,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -1697,7 +1736,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1706,7 +1745,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="21"/>
       <c r="C12" s="18"/>
@@ -1715,7 +1754,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="22"/>
@@ -1724,7 +1763,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="22"/>
@@ -1744,12 +1783,15 @@
   <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1757,7 +1799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1765,7 +1807,7 @@
         <v>18.54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1773,7 +1815,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1782,34 +1824,34 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <f>(1-B4)/2</f>
         <v>2.5000000000000022E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <f>_xlfn.CHISQ.INV(B6,B2)</f>
         <v>16.79077226556663</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <f>_xlfn.CHISQ.INV(B5,B2)</f>
         <v>46.979242243671159</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1818,7 +1860,7 @@
         <v>11.83927141938797</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1834,19 +1876,118 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <f>(1+B3)/2</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <f>(1-B3)/2</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <f>_xlfn.CHISQ.INV(B5,B1)</f>
+        <v>13.564709754618816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <f>_xlfn.CHISQ.INV(B4,B1)</f>
+        <v>48.278235770315511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <f>B1*B2/B8</f>
+        <v>9.4767340334609322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <f>B1*B2/B7</f>
+        <v>33.72869809058858</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
       <c r="B1" s="35"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -1854,7 +1995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
@@ -1862,7 +2003,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
@@ -1870,7 +2011,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -1879,42 +2020,42 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2">
         <f>(1-B4)/2</f>
         <v>2.5000000000000022E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="29"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2">
         <f>_xlfn.CHISQ.INV(B6,B2)</f>
         <v>40.481748042841829</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2">
         <f>_xlfn.CHISQ.INV(B5,B2)</f>
         <v>83.297674877173193</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="29"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>22</v>
       </c>
@@ -1923,7 +2064,7 @@
         <v>15.371377435060669</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>23</v>
       </c>
@@ -1935,6 +2076,513 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2">
+        <v>68.7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="33">
+        <v>0.98</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="33">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2">
+        <f>(1+B3)/2</f>
+        <v>0.99</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2">
+        <f>(1+E3)/2</f>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2">
+        <f>(1-B3)/2</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2">
+        <f>(1-E3)/2</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="29"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2">
+        <f>_xlfn.CHISQ.INV(B5,B1)</f>
+        <v>29.706682698841295</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2">
+        <f>_xlfn.CHISQ.INV(E5,E1)</f>
+        <v>32.357363695658648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2">
+        <f>_xlfn.CHISQ.INV(B4,B1)</f>
+        <v>76.153891249012702</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2">
+        <f>_xlfn.CHISQ.INV(E4,E1)</f>
+        <v>71.420195187506422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="29"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <f>B1*B2/B8</f>
+        <v>45.10603389612784</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2">
+        <f>E1*E2/E8</f>
+        <v>48.095640049453223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <f>B1*B2/B7</f>
+        <v>115.63054800911789</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2">
+        <f>E1*E2/E7</f>
+        <v>106.15821586419509</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2">
+        <f>(1+B3)/2</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2">
+        <f>(1-B3)/2</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2">
+        <f>_xlfn.CHISQ.INV(B5,B1)</f>
+        <v>22.164261252975162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2">
+        <f>_xlfn.CHISQ.INV(B4,B1)</f>
+        <v>63.690739751564493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <f>B1*B2/B8</f>
+        <v>5.8658448851007883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <f>B1*B2/B7</f>
+        <v>16.85596446170074</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B2^2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="29"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(1+B3)/2</f>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(1-B3)/2</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2">
+        <f>_xlfn.CHISQ.INV(B7,B1-1)</f>
+        <v>74.221927474923731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2">
+        <f>_xlfn.CHISQ.INV(B6,B1-1)</f>
+        <v>129.56119718583659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="29"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <f>SQRT((B1-1)*B4/B10)</f>
+        <v>3.5141679627433891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <f>SQRT((B1-1)*B4/B9)</f>
+        <v>4.642948614127933</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B2^2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="29"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(1+B3)/2</f>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(1-B3)/2</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2">
+        <f>_xlfn.CHISQ.INV(B7,B1-1)</f>
+        <v>40.481748042841829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2">
+        <f>_xlfn.CHISQ.INV(B6,B1-1)</f>
+        <v>83.297674877173193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="29"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <f>SQRT((B1-1)*B4/B10)</f>
+        <v>3.3948389557077308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <f>SQRT((B1-1)*B4/B9)</f>
+        <v>4.8697423919696119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1946,9 +2594,9 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -1963,7 +2611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1980,7 +2628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1997,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2014,12 +2662,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2036,7 +2684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2053,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2067,7 +2715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2081,13 +2729,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <f xml:space="preserve"> SUM(PRODUCT(B8:B9),PRODUCT(C8:C9),PRODUCT(D8:D9),PRODUCT(E8:E9))/SUM(B9:E9)</f>
         <v>3.6875</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2096,13 +2744,13 @@
         <v>43.802343749999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <f xml:space="preserve"> SUM(PRODUCT(B11:B12),PRODUCT(C11:C12),PRODUCT(D11:D12))/SUM(B12:D12)</f>
         <v>1.375</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2111,7 +2759,7 @@
         <v>0.484375</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -2120,7 +2768,7 @@
         <v>6.6183339104339547</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2129,13 +2777,13 @@
         <v>0.69597054535375269</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21">
         <f xml:space="preserve"> 1*1*4 + 3*2*1 + 5*2*1 + 6*4*1</f>
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2144,6 +2792,1100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B2^2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="29"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(1+B3)/2</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(1-B3)/2</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2">
+        <f>_xlfn.CHISQ.INV(B7,B1-1)</f>
+        <v>10.85636147553228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2">
+        <f>_xlfn.CHISQ.INV(B6,B1-1)</f>
+        <v>42.979820139351617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="29"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <f>SQRT((B1-1)*B4/B10)</f>
+        <v>2.2417881992194135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <f>SQRT((B1-1)*B4/B9)</f>
+        <v>4.4605121630385254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="33">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="33">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B2^2</f>
+        <v>225</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2">
+        <f>E2^2</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="29"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(1+B3)/2</f>
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2">
+        <f>(1+E3)/2</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(1-B3)/2</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2">
+        <f>(1-E3)/2</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="29"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2">
+        <f>_xlfn.CHISQ.INV(B7,B1-1)</f>
+        <v>10.117013063859043</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2">
+        <f>_xlfn.CHISQ.INV(E7,E1-1)</f>
+        <v>77.929465165017263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2">
+        <f>_xlfn.CHISQ.INV(B6,B1-1)</f>
+        <v>30.143527205646159</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2">
+        <f>_xlfn.CHISQ.INV(E6,E1-1)</f>
+        <v>124.34211340400408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="29"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <f>(B1-1)*B4/B10</f>
+        <v>141.82149191881081</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2">
+        <f>(E1-1)*E4/E10</f>
+        <v>180.95236910518406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <f>(B1-1)*B4/B9</f>
+        <v>422.55554806700428</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2">
+        <f>(E1-1)*E4/E9</f>
+        <v>288.72262824280625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B2^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="29"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(1+B3)/2</f>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(1-B3)/2</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2">
+        <f>_xlfn.CHISQ.INV(B7,B1-1)</f>
+        <v>6.2621377950432535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2">
+        <f>_xlfn.CHISQ.INV(B6,B1-1)</f>
+        <v>27.488392863442972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="29"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <f>SQRT((B1-1)*B4/B10)</f>
+        <v>0.73870485775054118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <f>SQRT((B1-1)*B4/B9)</f>
+        <v>1.5476912227160358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B2^2</f>
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2">
+        <f>_xlfn.T.INV((1+B3)/2, B1-1)</f>
+        <v>2.1314495455597742</v>
+      </c>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(1+B3)/2</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2">
+        <f>D4*B2/SQRT(B1)</f>
+        <v>4.2628990911195483</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(1-B3)/2</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <f>42.8-D6</f>
+        <v>38.537100908880447</v>
+      </c>
+      <c r="E7" s="2">
+        <f>42.8+D6</f>
+        <v>47.062899091119547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2">
+        <f>_xlfn.CHISQ.INV(B7,B1-1)</f>
+        <v>6.2621377950432535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2">
+        <f>_xlfn.CHISQ.INV(B6,B1-1)</f>
+        <v>27.488392863442972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="29"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <f>SQRT((B1-1)*B4/B10)</f>
+        <v>5.9096388620043294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <f>SQRT((B1-1)*B4/B9)</f>
+        <v>12.381529781728286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2">
+        <v>9</v>
+      </c>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6</v>
+      </c>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B2*B2</f>
+        <v>36</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2">
+        <f>_xlfn.T.INV((1+B3)/2,B1-1)</f>
+        <v>3.3553873313333948</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(1+B3)/2</f>
+        <v>0.995</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2">
+        <f>(1-B3)/2</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2">
+        <f>_xlfn.CHISQ.INV(B7,B1-1)</f>
+        <v>21.954954990659523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2">
+        <f>_xlfn.CHISQ.INV(B8,B1-1)</f>
+        <v>1.3444130870148105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2">
+        <f>SQRT((B1-1)*B4/B10)</f>
+        <v>3.6218459003520898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="2">
+        <f>SQRT((B1-1)*B4/B11)</f>
+        <v>14.636251994100425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2">
+        <f>B5*B2/SQRT(B1)</f>
+        <v>6.7107746626667897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2">
+        <f>B6-B16</f>
+        <v>23.389225337333212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2">
+        <f>B6+B16</f>
+        <v>36.810774662666788</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="25">
+        <v>16</v>
+      </c>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="25">
+        <v>8</v>
+      </c>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="25">
+        <v>0.999</v>
+      </c>
+      <c r="C3" s="36"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="25">
+        <f>B2*B2</f>
+        <v>64</v>
+      </c>
+      <c r="C4" s="36"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="25">
+        <f>_xlfn.T.INV((1+B3)/2,B1-1)</f>
+        <v>4.0727651959038447</v>
+      </c>
+      <c r="C5" s="36"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="25">
+        <v>42.8</v>
+      </c>
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="25">
+        <f>(1+B3)/2</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="25">
+        <f>(1-B3)/2</f>
+        <v>5.0000000000000044E-4</v>
+      </c>
+      <c r="C8" s="36"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2">
+        <f>_xlfn.CHISQ.INV(B7,B1-1)</f>
+        <v>39.718759789632472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2">
+        <f>_xlfn.CHISQ.INV(B8,B1-1)</f>
+        <v>3.1075185692182328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2">
+        <f>SQRT((B1-1)*B4/B10)</f>
+        <v>4.9162932142009446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="2">
+        <f>SQRT((B1-1)*B4/B11)</f>
+        <v>17.57635235223248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2">
+        <f>B5*B2/SQRT(B1)</f>
+        <v>8.1455303918076893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2">
+        <f>B6-B16</f>
+        <v>34.654469608192308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2">
+        <f>B6+B16</f>
+        <v>50.945530391807686</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B2*B2</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2">
+        <f>_xlfn.T.INV((1+B3)/2,B1-1)</f>
+        <v>1.7530503556925723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(1+B3)/2</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2">
+        <f>(1-B3)/2</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2">
+        <f>_xlfn.CHISQ.INV(B7,B1-1)</f>
+        <v>24.995790139728623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2">
+        <f>_xlfn.CHISQ.INV(B8,B1-1)</f>
+        <v>7.2609439276700316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2">
+        <f>SQRT((B1-1)*B4/B10)</f>
+        <v>6.1972951708351482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="2">
+        <f>SQRT((B1-1)*B4/B11)</f>
+        <v>11.498444015853414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2">
+        <f>B5*B2/SQRT(B1)</f>
+        <v>3.5061007113851446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2">
+        <f>B6-B16</f>
+        <v>39.293899288614853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2">
+        <f>B6+B16</f>
+        <v>46.306100711385142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2155,9 +3897,9 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2165,7 +3907,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2173,7 +3915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2181,7 +3923,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2189,7 +3931,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2202,7 +3944,7 @@
         <v>7.0710678118654755</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2211,12 +3953,12 @@
         <v>0.98771445452912621</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>24</v>
       </c>
@@ -2234,21 +3976,21 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1">
         <f>_xlfn.NORM.S.INV((1+0.99)/2)</f>
         <v>2.5758293035488999</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2256,7 +3998,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2264,24 +4006,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <f>SQRT(B3)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2290,7 +4032,7 @@
         <v>14.2241706964511</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2312,21 +4054,21 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1">
         <f>_xlfn.NORM.S.INV((1+0.994)/2)</f>
         <v>2.7477813854449917</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2334,7 +4076,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2342,24 +4084,24 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <f>SQRT(B3)</f>
         <v>12.24744871391589</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2368,7 +4110,7 @@
         <v>1395.9616026085653</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2390,29 +4132,29 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1">
         <f>_xlfn.NORM.S.INV((1+0.97)/2)</f>
         <v>2.1700903775845601</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="37">
         <v>9.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2420,24 +4162,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <f>SQRT(B3)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2446,7 +4188,7 @@
         <v>9.215542317905312</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2468,29 +4210,29 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1">
         <f>_xlfn.T.INV((1+0.95)/2, B3-1)</f>
         <v>2.0452296421327034</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="37">
         <v>6.85</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2498,7 +4240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2506,16 +4248,16 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <f>SQRT(B3)</f>
         <v>5.4772255750516612</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2524,7 +4266,7 @@
         <v>6.5886157042693299</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2540,60 +4282,93 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1">
         <f>_xlfn.T.INV((1+0.95)/2, B3-1)</f>
         <v>2.1447866879178035</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1">
+        <f>_xlfn.T.INV((1+0.99)/2, E3-1)</f>
+        <v>2.9768427343708344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="37">
         <v>10.37</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="37">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
       <c r="B4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <f>SQRT(B3)</f>
         <v>3.872983346207417</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <f>SQRT(E3)</f>
+        <v>3.872983346207417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2601,8 +4376,15 @@
         <f>B2-((B1*B4)/B6)</f>
         <v>8.4317646045229626</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <f>E2-((E1*E4)/E6)</f>
+        <v>7.6798387886174151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2610,66 +4392,16 @@
         <f>B2+((B1*B4)/B6)</f>
         <v>12.308235395477036</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10">
-        <f>_xlfn.T.INV((1+0.99)/2, B12-1)</f>
-        <v>2.9768427343708344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="38">
-        <v>10.37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15">
-        <f>SQRT(B12)</f>
-        <v>3.872983346207417</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16">
-        <f>B11-((B10*B13)/B15)</f>
-        <v>7.6798387886174151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D8" t="s">
         <v>44</v>
       </c>
-      <c r="B17">
-        <f>B11+((B10*B13)/B15)</f>
+      <c r="E8">
+        <f>E2+((E1*E4)/E6)</f>
         <v>13.060161211382583</v>
       </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2684,29 +4416,29 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1">
         <f>_xlfn.T.INV((1+0.9)/2, B3-1)</f>
         <v>1.6991270265334968</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="37">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2714,7 +4446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2722,16 +4454,16 @@
         <v>10.1709</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <f>SQRT(B3)</f>
         <v>5.4772255750516612</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2740,7 +4472,7 @@
         <v>116.84481662524799</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>

--- a/2 курс/Анализ данных/Лабораторная 6/Гурьянова_2020.xlsx
+++ b/2 курс/Анализ данных/Лабораторная 6/Гурьянова_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Факультет ИТиАБД\ПИ19-4\Жевагина Анастасия Владимировна - 191758\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5B8956-632F-4CBB-8603-566E14939ECB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A4C448-5E48-4EE2-9CF0-7ABFA8916D92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="54" activeTab="57" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="57" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист4" sheetId="5" r:id="rId1"/>
@@ -71,6 +71,11 @@
     <sheet name="№4 с. 91" sheetId="64" r:id="rId56"/>
     <sheet name="№6 с. 91" sheetId="65" r:id="rId57"/>
     <sheet name="№7 с. 91" sheetId="66" r:id="rId58"/>
+    <sheet name="Лист2" sheetId="67" r:id="rId59"/>
+    <sheet name="№1 с. 93" sheetId="68" r:id="rId60"/>
+    <sheet name="№2 с. 94" sheetId="70" r:id="rId61"/>
+    <sheet name="Лист9" sheetId="69" r:id="rId62"/>
+    <sheet name="№6 с. 98" sheetId="71" r:id="rId63"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Лист7 (2)'!$S$9:$S$265</definedName>
@@ -101,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="405">
   <si>
     <t>Cov =</t>
   </si>
@@ -1274,12 +1279,58 @@
   </si>
   <si>
     <t>S2^2</t>
+  </si>
+  <si>
+    <t>-X</t>
+  </si>
+  <si>
+    <t>-Y</t>
+  </si>
+  <si>
+    <t>σ^2(X)</t>
+  </si>
+  <si>
+    <t>σ^2(Y)</t>
+  </si>
+  <si>
+    <t>Zнабл</t>
+  </si>
+  <si>
+    <t>Zкрит</t>
+  </si>
+  <si>
+    <t>Гипотеза отвергается</t>
+  </si>
+  <si>
+    <t>-x</t>
+  </si>
+  <si>
+    <t>-y</t>
+  </si>
+  <si>
+    <t>D(X)</t>
+  </si>
+  <si>
+    <t>D(Y)</t>
+  </si>
+  <si>
+    <t>tнабл</t>
+  </si>
+  <si>
+    <t>Sсв</t>
+  </si>
+  <si>
+    <t>tкрит</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1472,7 +1523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1529,6 +1580,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1557,7 +1612,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1592,7 +1647,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3877,29 +3932,29 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="12">
         <f>_xlfn.STDEV.S(313,320,319,340,325,310,321,329,317,311,307,318)</f>
         <v>9.1037787692137986</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="12">
         <f>(G12-E12)/2</f>
         <v>8.1621668642442273</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="42"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="12">
         <f>(C12-A12)/2</f>
         <v>4.7196473720708241</v>
@@ -3907,10 +3962,10 @@
       <c r="D14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="12">
         <f>(G12-E12)/2</f>
         <v>8.1621668642442273</v>
@@ -6319,10 +6374,10 @@
       <c r="G3" t="s">
         <v>333</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="J3" s="43"/>
+      <c r="J3" s="47"/>
       <c r="L3" t="s">
         <v>337</v>
       </c>
@@ -6389,10 +6444,10 @@
         <f>_xlfn.QUARTILE.INC(E:E,3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="47"/>
       <c r="L5" t="e">
         <f t="shared" ref="L5:L68" si="0">IF(E2&lt;I$6,"ВЫБРОС",0)</f>
         <v>#NUM!</v>
@@ -6433,10 +6488,10 @@
       <c r="E7" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="J7" s="43"/>
+      <c r="J7" s="47"/>
       <c r="L7" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -10818,10 +10873,10 @@
       <c r="G3" t="s">
         <v>333</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="J3" s="43"/>
+      <c r="J3" s="47"/>
       <c r="L3" t="s">
         <v>337</v>
       </c>
@@ -10880,10 +10935,10 @@
         <f>_xlfn.QUARTILE.INC(E:E,3)</f>
         <v>-158.91</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="47"/>
       <c r="L5" t="str">
         <f>IF(E2&lt;I$6,"ВЫБРОС",0)</f>
         <v>ВЫБРОС</v>
@@ -10924,10 +10979,10 @@
       <c r="E7">
         <v>-223.12</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="J7" s="43"/>
+      <c r="J7" s="47"/>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
         <v>ВЫБРОС</v>
@@ -18977,8 +19032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ACABF7-A493-4D17-8F73-12935868825E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19060,6 +19115,117 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC95093-9FF9-4C9D-82F0-A29E5209EA0B}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2">
+        <v>85</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.05</v>
+      </c>
+      <c r="B6">
+        <f>(B2-D2)/SQRT(B3/B1+D3/D1)</f>
+        <v>4.0035031388994273</v>
+      </c>
+      <c r="C6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6">
+        <f>_xlfn.NORM.S.INV(1-A6)</f>
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="F6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="44">
+        <f>1-_xlfn.NORM.S.DIST(B6,TRUE)</f>
+        <v>3.1205686347623995E-5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="43"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19138,6 +19304,423 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61D8869-E5FC-4AB6-98BE-642C865A234C}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3">
+        <v>250</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.05</v>
+      </c>
+      <c r="B6">
+        <f>-(B2-D2)/SQRT(B3/B1+D3/D1)</f>
+        <v>1.7888543819998317</v>
+      </c>
+      <c r="C6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6">
+        <f>_xlfn.NORM.S.INV(1-A6)</f>
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="F6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="45">
+        <f>1-_xlfn.NORM.S.DIST(B6,TRUE)</f>
+        <v>3.6819135060151331E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4748B-8331-43DD-8134-2CB53D8A4E15}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2">
+        <v>410</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.05</v>
+      </c>
+      <c r="B6">
+        <f>(B2-D2)/SQRT(B3/B1+D3/D1)</f>
+        <v>3.7948187198442493</v>
+      </c>
+      <c r="C6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6">
+        <f>_xlfn.NORM.S.INV(1-A6)</f>
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="F6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="44">
+        <f>1-_xlfn.NORM.S.DIST(B6,TRUE)</f>
+        <v>7.3875685350444087E-5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C3550E-4F69-4BBC-B279-986FFA25701C}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>74.3</v>
+      </c>
+      <c r="D2">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.02</v>
+      </c>
+      <c r="B6">
+        <f>D3/B3</f>
+        <v>1.125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <f>_xlfn.F.INV(1-A6/2,D1-1,B1-1)</f>
+        <v>5.351128861148589</v>
+      </c>
+      <c r="F6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>SQRT(((B1-1)*B3+(D1-1)*D3)/(B1-1+D1-1))</f>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="B9">
+        <f>(B2-D2)/(A9*SQRT(1/B1+1/D1))</f>
+        <v>2.4947002649145427</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.T.INV(1-A6/2,B1-1+D1-1)</f>
+        <v>2.552379630182251</v>
+      </c>
+      <c r="F9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D391003C-CD0E-4E01-A722-112CB93EC287}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>SQRT((B1-1)*B3/(B1-1))</f>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="B9">
+        <f>(B2-D2)/(A9*SQRT(1/B1+1/D1))</f>
+        <v>-7.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.T.INV(1-A6/2,B1-1+D1-1)</f>
+        <v>2.1009220402410378</v>
+      </c>
+      <c r="F9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
